--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mitchell Josef Santner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +817,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +963,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1728,7 +1790,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>31/12/2016</t>
@@ -1736,7 +1797,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1788,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1932,7 +1993,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -1940,7 +2000,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1992,7 +2052,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2032,7 +2092,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -2040,7 +2099,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2144,7 +2203,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2196,7 +2255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2248,7 +2307,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2300,7 +2359,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2352,7 +2411,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2404,7 +2463,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2456,7 +2515,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2496,7 +2555,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -2504,7 +2562,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2556,7 +2614,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2608,7 +2666,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2648,7 +2706,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -2656,7 +2713,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2708,7 +2765,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2748,7 +2805,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -2756,7 +2812,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2808,7 +2864,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2848,7 +2904,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -2856,7 +2911,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2908,7 +2963,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2960,7 +3015,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3012,7 +3067,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3064,7 +3119,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3104,7 +3159,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -3112,7 +3166,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3164,7 +3218,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3216,7 +3270,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3268,7 +3322,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3308,7 +3362,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -3316,7 +3369,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3368,7 +3421,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3408,7 +3461,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -3416,7 +3468,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3468,7 +3520,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3508,7 +3560,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -3516,7 +3567,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3568,7 +3619,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3608,7 +3659,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -3616,7 +3666,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3668,7 +3718,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3720,7 +3770,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3772,7 +3822,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3824,7 +3874,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3876,7 +3926,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3928,7 +3978,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3980,7 +4030,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4032,7 +4082,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4072,7 +4122,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -4080,7 +4129,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4132,7 +4181,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4172,7 +4221,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -4180,7 +4228,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4220,7 +4268,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -4228,7 +4275,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4280,7 +4327,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4332,7 +4379,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4384,7 +4431,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4424,7 +4471,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -4432,7 +4478,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4484,7 +4530,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4536,7 +4582,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4576,7 +4622,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -4584,7 +4629,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4636,7 +4681,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4688,7 +4733,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4740,7 +4785,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4780,7 +4825,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -4788,7 +4832,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4828,7 +4872,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -4836,7 +4879,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4876,7 +4919,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -4884,7 +4926,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4936,7 +4978,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4988,7 +5030,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5040,7 +5082,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5092,7 +5134,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5144,7 +5186,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5196,7 +5238,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5235,7 +5277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5257,7 +5299,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5294,7 +5336,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5331,7 +5373,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5368,7 +5410,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5405,7 +5447,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5442,7 +5484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5479,7 +5521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5516,7 +5558,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5553,7 +5595,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5590,7 +5632,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5627,7 +5669,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5664,7 +5706,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5701,7 +5743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5738,7 +5780,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5775,7 +5817,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5812,7 +5854,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5849,7 +5891,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5886,7 +5928,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5923,7 +5965,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5960,7 +6002,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5997,7 +6039,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6034,7 +6076,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6071,7 +6113,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6108,7 +6150,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6145,7 +6187,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6182,7 +6224,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6219,7 +6261,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6256,7 +6298,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6293,7 +6335,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6330,7 +6372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6367,7 +6409,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6404,7 +6446,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6441,7 +6483,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6478,7 +6520,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6515,7 +6557,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6552,7 +6594,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6589,7 +6631,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6626,7 +6668,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6663,7 +6705,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6700,7 +6742,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6737,7 +6779,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6774,7 +6816,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6811,7 +6853,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6848,7 +6890,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6885,7 +6927,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6922,7 +6964,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6959,7 +7001,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6996,7 +7038,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7033,7 +7075,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7070,7 +7112,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7107,7 +7149,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7144,7 +7186,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7181,7 +7223,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7218,7 +7260,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7255,7 +7297,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7292,7 +7334,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7329,7 +7371,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7366,7 +7408,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7403,7 +7445,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7440,7 +7482,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7477,7 +7519,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7514,7 +7556,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7551,7 +7593,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7588,7 +7630,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7625,7 +7667,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7662,7 +7704,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7699,7 +7741,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7736,7 +7778,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7773,7 +7815,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7810,7 +7852,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7847,7 +7889,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7884,7 +7926,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7921,7 +7963,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7958,7 +8000,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7995,7 +8037,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8032,7 +8074,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8069,7 +8111,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8106,7 +8148,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8143,7 +8185,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8180,7 +8222,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8217,7 +8259,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8254,7 +8296,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8291,7 +8333,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8328,7 +8370,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8365,7 +8407,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8402,7 +8444,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8439,7 +8481,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8476,7 +8518,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8513,7 +8555,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8539,6 +8581,525 @@
       <c r="G89" t="inlineStr">
         <is>
           <t>0/58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.89%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13.16%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12.26%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.40%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11.53%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8644,9 +8645,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8752,9 +8750,6 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8827,15 +8822,407 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.51%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.40%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11.53%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8845,13 +9232,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8859,27 +9239,14 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.51%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8889,27 +9256,14 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12.40%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8919,17 +9273,12 @@
           <t>4669</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>7</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8939,13 +9288,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8953,15 +9295,14 @@
           <t>4676</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8973,13 +9314,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8987,27 +9321,14 @@
           <t>4688</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9019,13 +9340,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9035,13 +9349,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9049,27 +9356,14 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -9079,29 +9373,12 @@
           <t>4697</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11.53%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4885,7 +4884,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8645,6 +8644,9 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8750,6 +8752,9 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8822,6 +8827,10 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8834,6 +8843,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8909,6 +8922,9 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8921,6 +8937,10 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8936,6 +8956,9 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8948,6 +8971,10 @@
           <t>4686</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8990,6 +9017,10 @@
           <t>4690</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9002,6 +9033,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9067,318 +9102,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4429.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -817,6 +816,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -864,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -963,6 +964,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -1790,6 +1792,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>31/12/2016</t>
@@ -1993,6 +1996,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -2092,6 +2096,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -2555,6 +2560,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -2706,6 +2712,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -2805,6 +2812,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -2904,6 +2912,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -3159,6 +3168,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -3362,6 +3372,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -3461,6 +3472,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -3560,6 +3572,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -3659,6 +3672,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -4122,6 +4136,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -4221,6 +4236,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -4268,6 +4284,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -4471,6 +4488,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -4622,6 +4640,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -4825,6 +4844,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -4872,6 +4892,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -4919,6 +4940,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -8587,523 +8609,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.94%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.74%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.89%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13.16%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.51%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12.40%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11.53%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>